--- a/Data/EC/NIT-9013332921.xlsx
+++ b/Data/EC/NIT-9013332921.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCDC701-1F36-4A76-BF4E-4E7256D69AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DFE1BF-FB7D-40A3-B5BE-DF95AE7C0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4917E1A0-5ADA-44F5-87A8-0CD80098D4DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{576AE9A7-FEF5-4E27-8446-461BCE055EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143361023</t>
+  </si>
+  <si>
+    <t>MIGUEL REINIER GARCIA SANJUAN</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1143360831</t>
+  </si>
+  <si>
+    <t>LIS LAURY CASTILLO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1047387594</t>
+  </si>
+  <si>
+    <t>DANILO YESITH BARRIOS CANAVAL</t>
+  </si>
+  <si>
     <t>1143357850</t>
   </si>
   <si>
     <t>VANESSA ACEVEDO VILLEROS</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
     <t>45527359</t>
   </si>
   <si>
     <t>ANA OLINDA HERNANDEZ PINTO</t>
-  </si>
-  <si>
-    <t>1143360831</t>
-  </si>
-  <si>
-    <t>LIS LAURY CASTILLO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047387594</t>
-  </si>
-  <si>
-    <t>DANILO YESITH BARRIOS CANAVAL</t>
-  </si>
-  <si>
-    <t>1143361023</t>
-  </si>
-  <si>
-    <t>MIGUEL REINIER GARCIA SANJUAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FB9019-ED75-0AC2-1D96-CF1413B0293C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EC91A4-0A9C-1A2C-CCC5-7AA7AF114DA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C7855E-8B1F-490E-B5A9-4E5DB20937B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FA0A9D-B28C-4A73-9A05-92922ADAB25C}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64000</v>
+        <v>200000</v>
       </c>
       <c r="G16" s="18">
-        <v>1600000</v>
+        <v>5000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,10 +1061,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>80000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,10 +1084,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,7 +1110,7 @@
         <v>64000</v>
       </c>
       <c r="G19" s="18">
-        <v>1600000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,10 +1130,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="24">
-        <v>200000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="24">
-        <v>5000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>

--- a/Data/EC/NIT-9013332921.xlsx
+++ b/Data/EC/NIT-9013332921.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DFE1BF-FB7D-40A3-B5BE-DF95AE7C0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E443B85F-F7FA-4DB3-937C-1C1D98D54EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{576AE9A7-FEF5-4E27-8446-461BCE055EEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{32B8B270-A107-4F37-82A7-E36FDA33E16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EC91A4-0A9C-1A2C-CCC5-7AA7AF114DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4E111A-1028-E1BE-12D7-633F2A8B1115}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FA0A9D-B28C-4A73-9A05-92922ADAB25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7305D72B-6F97-4D11-9BA4-19A0F7802C3C}">
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1110,7 +1110,7 @@
         <v>64000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1600000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1133,7 +1133,7 @@
         <v>46400</v>
       </c>
       <c r="G20" s="24">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
